--- a/output/Clustering/fish/stats_compo_clust_fish_clean_PCs_k4.xlsx
+++ b/output/Clustering/fish/stats_compo_clust_fish_clean_PCs_k4.xlsx
@@ -12,134 +12,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_type</t>
+    <t xml:space="preserve">statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -149,7 +80,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">fish</t>
+    <t xml:space="preserve">all samples</t>
   </si>
 </sst>
 </file>
@@ -527,698 +458,710 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
         <v>18313.502</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>14400.587</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>7494.035</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8935.946</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1661.635</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>34.031</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>35.73</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4.221</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1.946</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.767</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.752</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1.16</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.09</v>
       </c>
-      <c r="O2" t="n">
-        <v>16329.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13390.931</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7333.358</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8368.823</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1623.931</v>
-      </c>
-      <c r="T2" t="n">
-        <v>27.912</v>
-      </c>
-      <c r="U2" t="n">
-        <v>34.819</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.762</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.661</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.658</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.157</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6438.002</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4088.69</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2673.813</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2487.863</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>318.185</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13.573</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.068</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.236</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AO2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="n">
-        <v>26602.464</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>20768.229</v>
+        <v>16329.17</v>
       </c>
       <c r="D3" t="n">
-        <v>9978.13</v>
+        <v>13390.931</v>
       </c>
       <c r="E3" t="n">
-        <v>13679.281</v>
+        <v>7333.358</v>
       </c>
       <c r="F3" t="n">
-        <v>1826.756</v>
+        <v>8368.823</v>
       </c>
       <c r="G3" t="n">
-        <v>39.457</v>
+        <v>1623.931</v>
       </c>
       <c r="H3" t="n">
-        <v>66.362</v>
+        <v>27.912</v>
       </c>
       <c r="I3" t="n">
-        <v>4.693</v>
+        <v>34.819</v>
       </c>
       <c r="J3" t="n">
-        <v>3.598</v>
+        <v>3.762</v>
       </c>
       <c r="K3" t="n">
-        <v>3.232</v>
+        <v>1.708</v>
       </c>
       <c r="L3" t="n">
-        <v>10.228</v>
+        <v>2.661</v>
       </c>
       <c r="M3" t="n">
-        <v>1.118</v>
+        <v>2.658</v>
       </c>
       <c r="N3" t="n">
-        <v>0.099</v>
+        <v>1.157</v>
       </c>
       <c r="O3" t="n">
-        <v>24393.503</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20158.476</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>10003.312</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13226.657</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1832.146</v>
-      </c>
-      <c r="T3" t="n">
-        <v>37.829</v>
-      </c>
-      <c r="U3" t="n">
-        <v>70.253</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.464</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.405</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.607</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.119</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5869.684</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2523.162</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1539.958</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2149.24</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>216.398</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18.394</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.235</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.454</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.259</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="AO3"/>
+        <v>0.088</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12252.584</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>11739.207</v>
+        <v>6438.002</v>
       </c>
       <c r="D4" t="n">
-        <v>13907.737</v>
+        <v>4088.69</v>
       </c>
       <c r="E4" t="n">
-        <v>8466.794</v>
+        <v>2673.813</v>
       </c>
       <c r="F4" t="n">
-        <v>1908.246</v>
+        <v>2487.863</v>
       </c>
       <c r="G4" t="n">
-        <v>36.675</v>
+        <v>318.185</v>
       </c>
       <c r="H4" t="n">
-        <v>52.458</v>
+        <v>13.573</v>
       </c>
       <c r="I4" t="n">
-        <v>6.438</v>
+        <v>10.068</v>
       </c>
       <c r="J4" t="n">
-        <v>2.063</v>
+        <v>1.236</v>
       </c>
       <c r="K4" t="n">
-        <v>2.397</v>
+        <v>0.754</v>
       </c>
       <c r="L4" t="n">
-        <v>3.103</v>
+        <v>0.624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.651</v>
+        <v>0.922</v>
       </c>
       <c r="N4" t="n">
-        <v>0.056</v>
+        <v>0.173</v>
       </c>
       <c r="O4" t="n">
-        <v>11869.911</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10937.456</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10746.27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7652.394</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1870.768</v>
-      </c>
-      <c r="T4" t="n">
-        <v>36.935</v>
-      </c>
-      <c r="U4" t="n">
-        <v>46.837</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.798</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.239</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4221.89</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3071.633</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6368.314</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2249.989</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>473.984</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.707</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20.057</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1.163</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="AO4"/>
+        <v>0.015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26602.464</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20768.229</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9978.13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13679.281</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1826.756</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39.457</v>
+      </c>
+      <c r="I5" t="n">
+        <v>66.362</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.693</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.598</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.228</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24393.503</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20158.476</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10003.312</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13226.657</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1832.146</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.829</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70.253</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.607</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5869.684</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2523.162</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1539.958</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2149.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>216.398</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.394</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.235</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.259</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12252.584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11739.207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13907.737</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8466.794</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1908.246</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36.675</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52.458</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.438</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11869.911</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10937.456</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10746.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7652.394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1870.768</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.935</v>
+      </c>
+      <c r="I9" t="n">
+        <v>46.837</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.798</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4221.89</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3071.633</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6368.314</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2249.989</v>
+      </c>
+      <c r="G10" t="n">
+        <v>473.984</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.707</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.057</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
         <v>23323.353</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D11" t="n">
         <v>18224.684</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E11" t="n">
         <v>15879.955</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F11" t="n">
         <v>9041.4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G11" t="n">
         <v>3104.849</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H11" t="n">
         <v>119.383</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I11" t="n">
         <v>66.948</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J11" t="n">
         <v>7.746</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K11" t="n">
         <v>3.723</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L11" t="n">
         <v>2.764</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M11" t="n">
         <v>1.783</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N11" t="n">
         <v>1.805</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O11" t="n">
         <v>0.12</v>
       </c>
-      <c r="O5" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
         <v>22256.005</v>
       </c>
-      <c r="P5" t="n">
+      <c r="D12" t="n">
         <v>17977.425</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="E12" t="n">
         <v>15310.941</v>
       </c>
-      <c r="R5" t="n">
+      <c r="F12" t="n">
         <v>8671.316</v>
       </c>
-      <c r="S5" t="n">
+      <c r="G12" t="n">
         <v>3003.033</v>
       </c>
-      <c r="T5" t="n">
+      <c r="H12" t="n">
         <v>98.959</v>
       </c>
-      <c r="U5" t="n">
+      <c r="I12" t="n">
         <v>59.95</v>
       </c>
-      <c r="V5" t="n">
+      <c r="J12" t="n">
         <v>6.349</v>
       </c>
-      <c r="W5" t="n">
+      <c r="K12" t="n">
         <v>3.551</v>
       </c>
-      <c r="X5" t="n">
+      <c r="L12" t="n">
         <v>2.79</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="M12" t="n">
         <v>2.093</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="N12" t="n">
         <v>1.68</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="O12" t="n">
         <v>0.114</v>
       </c>
-      <c r="AB5" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
         <v>4579.553</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="D13" t="n">
         <v>2279.599</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="E13" t="n">
         <v>3656.025</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="F13" t="n">
         <v>2078.808</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="G13" t="n">
         <v>549.16</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="H13" t="n">
         <v>52.582</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="I13" t="n">
         <v>19.305</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="J13" t="n">
         <v>3.066</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="K13" t="n">
         <v>0.981</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="L13" t="n">
         <v>0.8</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="M13" t="n">
         <v>0.554</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="N13" t="n">
         <v>1.038</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="O13" t="n">
         <v>0.045</v>
       </c>
-      <c r="AO5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
         <v>19869.187</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D14" t="n">
         <v>16059.963</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E14" t="n">
         <v>11314.147</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F14" t="n">
         <v>9963.347</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G14" t="n">
         <v>2055.645</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H14" t="n">
         <v>53.502</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I14" t="n">
         <v>53.301</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J14" t="n">
         <v>5.58</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K14" t="n">
         <v>2.728</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L14" t="n">
         <v>2.789</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M14" t="n">
         <v>4.394</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N14" t="n">
         <v>1.163</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O14" t="n">
         <v>0.09</v>
       </c>
-      <c r="O6" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="n">
         <v>19277.316</v>
       </c>
-      <c r="P6" t="n">
+      <c r="D15" t="n">
         <v>16407.28</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="E15" t="n">
         <v>9821.415</v>
       </c>
-      <c r="R6" t="n">
+      <c r="F15" t="n">
         <v>8936.025</v>
       </c>
-      <c r="S6" t="n">
+      <c r="G15" t="n">
         <v>1863.513</v>
       </c>
-      <c r="T6" t="n">
+      <c r="H15" t="n">
         <v>39.412</v>
       </c>
-      <c r="U6" t="n">
+      <c r="I15" t="n">
         <v>52.317</v>
       </c>
-      <c r="V6" t="n">
+      <c r="J15" t="n">
         <v>5.292</v>
       </c>
-      <c r="W6" t="n">
+      <c r="K15" t="n">
         <v>2.318</v>
       </c>
-      <c r="X6" t="n">
+      <c r="L15" t="n">
         <v>2.778</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="M15" t="n">
         <v>2.947</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="N15" t="n">
         <v>1.086</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="O15" t="n">
         <v>0.085</v>
       </c>
-      <c r="AB6" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
         <v>7473.576</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="D16" t="n">
         <v>4601.537</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="E16" t="n">
         <v>5005.226</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="F16" t="n">
         <v>3022.836</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="G16" t="n">
         <v>668.075</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="H16" t="n">
         <v>42.756</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="I16" t="n">
         <v>19.748</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="J16" t="n">
         <v>2.489</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="K16" t="n">
         <v>1.837</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="L16" t="n">
         <v>0.684</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="M16" t="n">
         <v>3.761</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="N16" t="n">
         <v>0.608</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="O16" t="n">
         <v>0.032</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
